--- a/biology/Zoologie/Gobemouche_à_gorge_blanche/Gobemouche_à_gorge_blanche.xlsx
+++ b/biology/Zoologie/Gobemouche_à_gorge_blanche/Gobemouche_à_gorge_blanche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gobemouche_%C3%A0_gorge_blanche</t>
+          <t>Gobemouche_à_gorge_blanche</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anthipes monileger
-Le Gobemouche à gorge blanche[1] (Anthipes monileger) est une espèce d'oiseaux de la famille des Muscicapidae.
+Le Gobemouche à gorge blanche (Anthipes monileger) est une espèce d'oiseaux de la famille des Muscicapidae.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gobemouche_%C3%A0_gorge_blanche</t>
+          <t>Gobemouche_à_gorge_blanche</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet oiseau se rencontre au Bangladesh, au Bhoutan, en Birmanie, en Chine, en Inde, au Laos, au Népal, en Thaïlande et au Viêt Nam[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau se rencontre au Bangladesh, au Bhoutan, en Birmanie, en Chine, en Inde, au Laos, au Népal, en Thaïlande et au Viêt Nam.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gobemouche_%C3%A0_gorge_blanche</t>
+          <t>Gobemouche_à_gorge_blanche</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (2 juin 2023)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (2 juin 2023) :
 Anthipes monileger gularis Blyth, 1847
 Anthipes monileger leucops (Sharpe, 1888)
 Anthipes monileger monileger</t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gobemouche_%C3%A0_gorge_blanche</t>
+          <t>Gobemouche_à_gorge_blanche</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,12 +592,14 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Anthipes monileger (Hodgson, 1845)[1].
-L'espèce a été initialement classée dans le genre Dimorpha sous le protonyme Dimorpha monileger Hodgson, 1845[3]
-Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Gobemouche à gorge blanche[1].
-Anthipes monileger a pour synonymes[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Anthipes monileger (Hodgson, 1845).
+L'espèce a été initialement classée dans le genre Dimorpha sous le protonyme Dimorpha monileger Hodgson, 1845
+Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Gobemouche à gorge blanche.
+Anthipes monileger a pour synonymes :
 Dimorpha monileger Hodgson, 1845
 Ficedula monileger (Hodgson, 1845)</t>
         </is>
